--- a/restAssuredFrameworkLearing/testdata/Student-sample-data (1) (1).xlsx
+++ b/restAssuredFrameworkLearing/testdata/Student-sample-data (1) (1).xlsx
@@ -216,25 +216,25 @@
     <t>B</t>
   </si>
   <si>
+    <t>ssf</t>
+  </si>
+  <si>
+    <t>dasda</t>
+  </si>
+  <si>
     <t>Grade 1 for R2.0</t>
   </si>
   <si>
-    <t>SCS</t>
-  </si>
-  <si>
-    <t>SSSS</t>
-  </si>
-  <si>
-    <t>90922</t>
-  </si>
-  <si>
-    <t>91022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Byers 1</t>
-  </si>
-  <si>
-    <t>Steve jonathan1</t>
+    <t>Aruluu</t>
+  </si>
+  <si>
+    <t>Naveenuuuuu</t>
+  </si>
+  <si>
+    <t>7878</t>
+  </si>
+  <si>
+    <t>7777</t>
   </si>
 </sst>
 </file>
@@ -630,12 +630,12 @@
   <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -869,10 +869,10 @@
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
@@ -881,7 +881,7 @@
         <v>40463</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -899,7 +899,7 @@
         <v>63</v>
       </c>
       <c r="AJ2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BF2" t="s">
         <v>60</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="3" spans="1:58">
       <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -919,7 +919,7 @@
         <v>40463</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
         <v>64</v>
@@ -937,7 +937,7 @@
         <v>63</v>
       </c>
       <c r="AJ3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BF3" t="s">
         <v>60</v>

--- a/restAssuredFrameworkLearing/testdata/Student-sample-data (1) (1).xlsx
+++ b/restAssuredFrameworkLearing/testdata/Student-sample-data (1) (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>admissionNumber</t>
   </si>
@@ -198,9 +198,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
@@ -213,18 +210,12 @@
     <t>testerpiccomail@gmail.com</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>ssf</t>
   </si>
   <si>
     <t>dasda</t>
   </si>
   <si>
-    <t>Grade 1 for R2.0</t>
-  </si>
-  <si>
     <t>Aruluu</t>
   </si>
   <si>
@@ -235,13 +226,19 @@
   </si>
   <si>
     <t>7777</t>
+  </si>
+  <si>
+    <t>3-Gear</t>
+  </si>
+  <si>
+    <t>Section-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -279,6 +276,11 @@
     <font>
       <sz val="8"/>
       <color rgb="FF666666"/>
+      <name val="Lexend"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212529"/>
       <name val="Lexend"/>
     </font>
   </fonts>
@@ -321,7 +323,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -332,6 +334,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,7 +633,7 @@
   <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
@@ -869,10 +872,10 @@
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
@@ -881,36 +884,36 @@
         <v>40463</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" t="s">
         <v>61</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>62</v>
       </c>
       <c r="Z2">
         <v>8805968954</v>
       </c>
       <c r="AA2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>65</v>
-      </c>
       <c r="BF2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:58">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -919,28 +922,28 @@
         <v>40463</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
         <v>61</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>62</v>
       </c>
       <c r="Z3">
         <v>8805968954</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BF3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -949,6 +952,6 @@
     <hyperlink ref="AA3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>